--- a/individual_case_outputs/avey/160.xlsx
+++ b/individual_case_outputs/avey/160.xlsx
@@ -527,19 +527,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>osteoarthritis</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dislocated shoulder</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>glenohumeral arthritis</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>shoulder bursitis</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>glenohumeral arthritis</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>rotator cuff injury</t>
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>trauma to the shpulder</t>
+          <t>frozen shoulder</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>glenohumeral arthritis</t>
+          <t>rotator cuff impingement</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>rotator cuff injury</t>
+          <t>shoulder fracture</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -714,7 +714,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>glenohumeral arthritis</t>
+          <t>subluxation or dislocation of the shoulder</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -722,7 +722,11 @@
           <t>shoulder dislocation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>rotator cuff injury</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
